--- a/Test_Case_CIC_Result.xlsx
+++ b/Test_Case_CIC_Result.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD6636-C516-4DDE-BA6B-B404D4CADC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE40840-824E-443F-9B4E-4039F44D6C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="3" xr2:uid="{B0ED602C-00AE-4C48-832E-4A6DC3DF066C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="MC_data" sheetId="3" r:id="rId3"/>
-    <sheet name="FG" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="FG" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FG!$A$1:$H$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FG!$A$1:$H$185</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MC_data!$A$1:$D$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$Z$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$10:$H$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="84">
   <si>
     <t>Order_ID</t>
   </si>
@@ -294,6 +296,9 @@
   <si>
     <t>Không đủ MC để cắt, thiếu 1 cuộn của PO có Width = 110</t>
   </si>
+  <si>
+    <t>Test case 1:</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +353,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -372,11 +383,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +437,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15238,1081 +15293,608 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3694534F-4645-40D2-A368-892025322138}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4395</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4395</v>
-      </c>
-      <c r="D2" s="4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9260</v>
+      </c>
+      <c r="C3" s="4">
         <v>1219</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="D3" s="5">
         <v>1.6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9260</v>
-      </c>
-      <c r="D3" s="4">
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5350</v>
+      </c>
+      <c r="C4" s="4">
         <v>1219</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="D4" s="5">
         <v>2.6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5350</v>
-      </c>
-      <c r="D4" s="4">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="4">
         <v>1219</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="D5" s="5">
         <v>2.6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>400</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4266</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1108</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8070</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3475</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7858</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4842</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9770</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8675</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1233</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7550</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1233</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7105</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1233</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9630</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1233</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8400</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8855</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8500</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8845</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4332.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4332.5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4">
+        <v>823</v>
+      </c>
+      <c r="C23" s="4">
+        <v>146</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4149</v>
+      </c>
+      <c r="C24" s="4">
+        <v>537</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4">
+        <v>11900</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6985</v>
+      </c>
+      <c r="C26" s="4">
+        <v>911</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8900</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1178</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <v>9140</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1178</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6775</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8535</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4">
+        <v>7095</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1571</v>
+      </c>
+      <c r="C32" s="4">
+        <v>236</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4">
+        <v>970</v>
+      </c>
+      <c r="C33" s="4">
+        <v>270</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6459</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2155</v>
+      </c>
+      <c r="C35" s="6">
+        <v>633</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7670</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4">
         <v>4000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C37" s="4">
         <v>1219</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4">
-        <v>400</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4">
+        <v>11560</v>
+      </c>
+      <c r="C38" s="4">
         <v>1219</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4266</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1108</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8070</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="D38" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3365</v>
+      </c>
+      <c r="C39" s="4">
         <v>1219</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3475</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D39" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="4">
         <v>1219</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="D40" s="5">
         <v>3.2</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7858</v>
-      </c>
-      <c r="D10" s="4">
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5485</v>
+      </c>
+      <c r="C41" s="4">
         <v>1219</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4842</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5485</v>
+      </c>
+      <c r="C42" s="6">
         <v>1219</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9770</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8675</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1233</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7550</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1233</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7105</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1233</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9630</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1233</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8400</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8855</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8500</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8845</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4332.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4332.5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4">
-        <v>823</v>
-      </c>
-      <c r="D23" s="4">
-        <v>146</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4149</v>
-      </c>
-      <c r="D24" s="4">
-        <v>537</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="4">
-        <v>11900</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4">
-        <v>6985</v>
-      </c>
-      <c r="D26" s="4">
-        <v>911</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8900</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1178</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="4">
-        <v>9140</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1178</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="4">
-        <v>6775</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="4">
-        <v>8535</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="4">
-        <v>7095</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1571</v>
-      </c>
-      <c r="D32" s="4">
-        <v>236</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4">
-        <v>970</v>
-      </c>
-      <c r="D33" s="4">
-        <v>270</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6459</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2155</v>
-      </c>
-      <c r="D35" s="6">
-        <v>633</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7670</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="4">
-        <v>4000</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="4">
-        <v>11560</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="4">
-        <v>3365</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="4">
-        <v>5485</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1219</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>2</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="6">
-        <v>5485</v>
-      </c>
       <c r="D42" s="6">
-        <v>1219</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E155" s="6"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E176" s="6"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E185" s="4"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D42" xr:uid="{3694534F-4645-40D2-A368-892025322138}">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
         <filter val="1.6"/>
       </filters>
@@ -16323,11 +15905,763 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44BED8-07FB-4C88-969A-C387BBAADFF4}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4395</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9260</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3475</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8535</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1219</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7095</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1219</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1571</v>
+      </c>
+      <c r="C8" s="4">
+        <v>236</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>83</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>240</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>235</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-11524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F13" s="8">
+        <v>175</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>147</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>130</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="8">
+        <v>122</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F20" s="8">
+        <v>93</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="4">
+        <v>92</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F22" s="4">
+        <v>92</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="F23" s="12">
+        <v>85</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="12">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="F24" s="10">
+        <v>80</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="10">
+        <v>-1150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="8">
+        <v>74</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="8">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>75</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F26" s="8">
+        <v>72</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F27" s="4">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F28" s="4">
+        <v>68</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F29" s="8">
+        <v>65</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F30" s="4">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>57</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F32" s="4">
+        <v>57</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F33" s="4">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-152</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:H33" xr:uid="{FE44BED8-07FB-4C88-969A-C387BBAADFF4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H33">
+      <sortCondition descending="1" ref="F10:F33"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4134D63-BD28-4B88-8F50-95CECB94FA42}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A185"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16783,7 +17117,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -16809,7 +17143,7 @@
         <v>-1895</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -16835,7 +17169,7 @@
         <v>-1414</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -16861,7 +17195,7 @@
         <v>-788</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -16887,7 +17221,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -16913,7 +17247,7 @@
         <v>-4247</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -16939,7 +17273,7 @@
         <v>-515</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -16965,7 +17299,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16991,7 +17325,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -17017,7 +17351,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17043,7 +17377,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -17069,7 +17403,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -17095,7 +17429,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -17121,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -17147,7 +17481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -17173,7 +17507,7 @@
         <v>-1240</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -17199,7 +17533,7 @@
         <v>-1097</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -17225,7 +17559,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -17251,7 +17585,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -17277,7 +17611,7 @@
         <v>-668</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -17303,7 +17637,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -17329,7 +17663,7 @@
         <v>-425</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -17433,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -17459,7 +17793,7 @@
         <v>-3794</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -17485,7 +17819,7 @@
         <v>-2064</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -17511,7 +17845,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -17537,7 +17871,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -17563,7 +17897,7 @@
         <v>-3437</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -17589,7 +17923,7 @@
         <v>-881</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -17615,7 +17949,7 @@
         <v>-611</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -17641,7 +17975,7 @@
         <v>-638</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -17667,7 +18001,7 @@
         <v>-524</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -17693,7 +18027,7 @@
         <v>-202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -17719,7 +18053,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -17745,7 +18079,7 @@
         <v>-28575</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -17771,7 +18105,7 @@
         <v>-30773</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -17797,7 +18131,7 @@
         <v>-4402</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -17823,7 +18157,7 @@
         <v>-1751</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -17849,7 +18183,7 @@
         <v>-978</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -17875,7 +18209,7 @@
         <v>-839</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -17901,7 +18235,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -17927,7 +18261,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -17953,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -17979,7 +18313,7 @@
         <v>-577</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -18005,7 +18339,7 @@
         <v>-1550</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -18031,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -18057,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -18083,7 +18417,7 @@
         <v>-2103</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -18109,7 +18443,7 @@
         <v>-1138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -18135,7 +18469,7 @@
         <v>-917</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -18161,7 +18495,7 @@
         <v>-303</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -18187,7 +18521,7 @@
         <v>-669</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -18213,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -18239,7 +18573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -18265,7 +18599,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -18317,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -18343,7 +18677,7 @@
         <v>-15398</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -18369,7 +18703,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -18395,7 +18729,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -18421,7 +18755,7 @@
         <v>-3442</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -18447,7 +18781,7 @@
         <v>-663</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -18551,7 +18885,7 @@
         <v>-735</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -18577,7 +18911,7 @@
         <v>-772</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -18603,7 +18937,7 @@
         <v>-909</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -18629,7 +18963,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -18655,7 +18989,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -18681,7 +19015,7 @@
         <v>-178</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -18707,7 +19041,7 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -18733,7 +19067,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -18759,7 +19093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -18785,7 +19119,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -18811,7 +19145,7 @@
         <v>-2345</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -18837,7 +19171,7 @@
         <v>-2279</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -18863,7 +19197,7 @@
         <v>-927</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -18889,7 +19223,7 @@
         <v>-523</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -18915,7 +19249,7 @@
         <v>-451</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -18941,7 +19275,7 @@
         <v>-644</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -18967,7 +19301,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -18993,7 +19327,7 @@
         <v>-5929</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -19019,7 +19353,7 @@
         <v>-1347</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -19045,7 +19379,7 @@
         <v>-4480</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -19071,7 +19405,7 @@
         <v>-2032</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -19097,7 +19431,7 @@
         <v>-1508</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -19123,7 +19457,7 @@
         <v>-734</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -19149,7 +19483,7 @@
         <v>-568</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -19175,7 +19509,7 @@
         <v>-345</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -19201,7 +19535,7 @@
         <v>-304</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -19227,7 +19561,7 @@
         <v>-568</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -19253,7 +19587,7 @@
         <v>-372</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -19279,7 +19613,7 @@
         <v>-273</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -19305,7 +19639,7 @@
         <v>-227</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -19331,7 +19665,7 @@
         <v>-217</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -19357,7 +19691,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -19383,348 +19717,354 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H185" xr:uid="{A4134D63-BD28-4B88-8F50-95CECB94FA42}"/>
+  <autoFilter ref="A1:H185" xr:uid="{A4134D63-BD28-4B88-8F50-95CECB94FA42}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1.6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Test_Case_CIC_Result.xlsx
+++ b/Test_Case_CIC_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE40840-824E-443F-9B4E-4039F44D6C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D1B0F3-ABB6-463D-8358-AECD1BB66787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="3" xr2:uid="{B0ED602C-00AE-4C48-832E-4A6DC3DF066C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{B0ED602C-00AE-4C48-832E-4A6DC3DF066C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -758,11 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EDC5A7-7122-4C2B-B2ED-3405E1D19072}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -883,40 +882,40 @@
       <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>1.6</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>147</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8">
         <v>-1308</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="8">
         <v>4395</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="8">
         <v>1219</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="8">
         <v>-281.987694831829</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="8">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="8">
         <v>3</v>
       </c>
       <c r="P2" s="4">
@@ -951,7 +950,7 @@
       </c>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -961,40 +960,40 @@
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>1.6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>136</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8">
         <v>-1290</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <v>4395</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="8">
         <v>1219</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="8">
         <v>-181.00902378999101</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>3</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="8">
         <v>3</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="8">
         <v>3</v>
       </c>
       <c r="P3" s="4">
@@ -1029,7 +1028,7 @@
       </c>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -1039,41 +1038,41 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>1.6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>68</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8">
         <v>-309</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="8">
         <v>4395</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="8">
         <v>1219</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="8">
         <v>63.831829368334603</v>
       </c>
-      <c r="M4" s="4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -1107,7 +1106,7 @@
       </c>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -1117,40 +1116,40 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>1.6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8">
         <v>-159</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="8">
         <v>4395</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="8">
         <v>1219</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="8">
         <v>-57.324856439704597</v>
       </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
         <v>1</v>
       </c>
       <c r="P5" s="4">
@@ -1185,7 +1184,7 @@
       </c>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -1195,40 +1194,40 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>1.6</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>85</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8">
         <v>-132</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>4395</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="8">
         <v>1219</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="8">
         <v>-174.46021328958099</v>
       </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
         <v>1</v>
       </c>
       <c r="P6" s="4">
@@ -1263,7 +1262,7 @@
       </c>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -1273,40 +1272,40 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>1.6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <v>57</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8">
         <v>-100</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="8">
         <v>4395</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="8">
         <v>1219</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="8">
         <v>-105.50861361771901</v>
       </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
         <v>1</v>
       </c>
       <c r="P7" s="4">
@@ -1341,7 +1340,7 @@
       </c>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>11</v>
       </c>
@@ -1351,40 +1350,40 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>1.6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>92</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8">
         <v>-100</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="8">
         <v>4395</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="8">
         <v>1219</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="8">
         <v>-231.69811320754701</v>
       </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
         <v>1</v>
       </c>
       <c r="P8" s="4">
@@ -1419,7 +1418,7 @@
       </c>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1497,7 +1496,7 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1653,7 +1652,7 @@
       </c>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1731,7 +1730,7 @@
       </c>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1809,7 +1808,7 @@
       </c>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -1887,7 +1886,7 @@
       </c>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1965,7 +1964,7 @@
       </c>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2043,7 +2042,7 @@
       </c>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2121,7 +2120,7 @@
       </c>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -2199,7 +2198,7 @@
       </c>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -2277,7 +2276,7 @@
       </c>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -2355,7 +2354,7 @@
       </c>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -2433,7 +2432,7 @@
       </c>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -2511,7 +2510,7 @@
       </c>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -2589,7 +2588,7 @@
       </c>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -2667,7 +2666,7 @@
       </c>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -2823,7 +2822,7 @@
       </c>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -2901,7 +2900,7 @@
       </c>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -2979,7 +2978,7 @@
       </c>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>10</v>
       </c>
@@ -3057,7 +3056,7 @@
       </c>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -3135,7 +3134,7 @@
       </c>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4</v>
       </c>
@@ -3213,7 +3212,7 @@
       </c>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>8</v>
       </c>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>19</v>
       </c>
@@ -3369,7 +3368,7 @@
       </c>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0</v>
       </c>
@@ -3447,7 +3446,7 @@
       </c>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -3525,7 +3524,7 @@
       </c>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>16</v>
       </c>
@@ -3603,7 +3602,7 @@
       </c>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -3681,7 +3680,7 @@
       </c>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>11</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -3837,7 +3836,7 @@
       </c>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -3915,7 +3914,7 @@
       </c>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -3993,7 +3992,7 @@
       </c>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -4071,7 +4070,7 @@
       </c>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -4149,7 +4148,7 @@
       </c>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -4227,7 +4226,7 @@
       </c>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>6</v>
       </c>
@@ -4305,7 +4304,7 @@
       </c>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>7</v>
       </c>
@@ -4383,7 +4382,7 @@
       </c>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -4461,7 +4460,7 @@
       </c>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -4539,7 +4538,7 @@
       </c>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>6</v>
       </c>
@@ -4617,7 +4616,7 @@
       </c>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -4695,7 +4694,7 @@
       </c>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -4773,7 +4772,7 @@
       </c>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -4851,7 +4850,7 @@
       </c>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>8</v>
       </c>
@@ -4929,7 +4928,7 @@
       </c>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -5007,7 +5006,7 @@
       </c>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -5085,7 +5084,7 @@
       </c>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>4</v>
       </c>
@@ -5163,7 +5162,7 @@
       </c>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>6</v>
       </c>
@@ -5241,7 +5240,7 @@
       </c>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -5319,7 +5318,7 @@
       </c>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -5397,7 +5396,7 @@
       </c>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -5475,7 +5474,7 @@
       </c>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>4</v>
       </c>
@@ -5553,7 +5552,7 @@
       </c>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -5631,7 +5630,7 @@
       </c>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>6</v>
       </c>
@@ -5709,7 +5708,7 @@
       </c>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -5787,7 +5786,7 @@
       </c>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>8</v>
       </c>
@@ -5865,7 +5864,7 @@
       </c>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>9</v>
       </c>
@@ -5943,7 +5942,7 @@
       </c>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>12</v>
       </c>
@@ -6021,7 +6020,7 @@
       </c>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -6099,7 +6098,7 @@
       </c>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -6177,7 +6176,7 @@
       </c>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -6255,7 +6254,7 @@
       </c>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -6333,7 +6332,7 @@
       </c>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -6411,7 +6410,7 @@
       </c>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -6489,7 +6488,7 @@
       </c>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>3</v>
       </c>
@@ -6567,7 +6566,7 @@
       </c>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>4</v>
       </c>
@@ -6645,7 +6644,7 @@
       </c>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>0</v>
       </c>
@@ -6723,7 +6722,7 @@
       </c>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -6801,7 +6800,7 @@
       </c>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -6879,7 +6878,7 @@
       </c>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>0</v>
       </c>
@@ -6957,7 +6956,7 @@
       </c>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -7035,7 +7034,7 @@
       </c>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>4</v>
       </c>
@@ -7113,7 +7112,7 @@
       </c>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>5</v>
       </c>
@@ -7191,7 +7190,7 @@
       </c>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>6</v>
       </c>
@@ -7269,7 +7268,7 @@
       </c>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>7</v>
       </c>
@@ -7347,7 +7346,7 @@
       </c>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>0</v>
       </c>
@@ -7425,7 +7424,7 @@
       </c>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>8</v>
       </c>
@@ -7503,7 +7502,7 @@
       </c>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>0</v>
       </c>
@@ -7581,7 +7580,7 @@
       </c>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>8</v>
       </c>
@@ -7659,7 +7658,7 @@
       </c>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>0</v>
       </c>
@@ -7737,7 +7736,7 @@
       </c>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>8</v>
       </c>
@@ -7815,7 +7814,7 @@
       </c>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>0</v>
       </c>
@@ -7893,7 +7892,7 @@
       </c>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -7971,7 +7970,7 @@
       </c>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -8049,7 +8048,7 @@
       </c>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>4</v>
       </c>
@@ -8127,7 +8126,7 @@
       </c>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>8</v>
       </c>
@@ -8205,7 +8204,7 @@
       </c>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>0</v>
       </c>
@@ -8283,7 +8282,7 @@
       </c>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>0</v>
       </c>
@@ -8361,7 +8360,7 @@
       </c>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -8439,7 +8438,7 @@
       </c>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>4</v>
       </c>
@@ -8517,7 +8516,7 @@
       </c>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>0</v>
       </c>
@@ -8595,7 +8594,7 @@
       </c>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>1</v>
       </c>
@@ -8673,7 +8672,7 @@
       </c>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>2</v>
       </c>
@@ -8751,7 +8750,7 @@
       </c>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -8829,7 +8828,7 @@
       </c>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>0</v>
       </c>
@@ -8907,7 +8906,7 @@
       </c>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>1</v>
       </c>
@@ -8985,7 +8984,7 @@
       </c>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>2</v>
       </c>
@@ -9063,7 +9062,7 @@
       </c>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>0</v>
       </c>
@@ -9141,7 +9140,7 @@
       </c>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -9219,7 +9218,7 @@
       </c>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>2</v>
       </c>
@@ -9297,7 +9296,7 @@
       </c>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -9375,7 +9374,7 @@
       </c>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>4</v>
       </c>
@@ -9453,7 +9452,7 @@
       </c>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>0</v>
       </c>
@@ -9531,7 +9530,7 @@
       </c>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1</v>
       </c>
@@ -9609,7 +9608,7 @@
       </c>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>5</v>
       </c>
@@ -9687,7 +9686,7 @@
       </c>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -9765,7 +9764,7 @@
       </c>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>9</v>
       </c>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>10</v>
       </c>
@@ -9921,7 +9920,7 @@
       </c>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>11</v>
       </c>
@@ -9999,7 +9998,7 @@
       </c>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>2</v>
       </c>
@@ -10077,7 +10076,7 @@
       </c>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>3</v>
       </c>
@@ -10155,7 +10154,7 @@
       </c>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -10233,7 +10232,7 @@
       </c>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>5</v>
       </c>
@@ -10311,7 +10310,7 @@
       </c>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>6</v>
       </c>
@@ -10389,7 +10388,7 @@
       </c>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>7</v>
       </c>
@@ -10467,7 +10466,7 @@
       </c>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>12</v>
       </c>
@@ -10545,7 +10544,7 @@
       </c>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>13</v>
       </c>
@@ -10623,7 +10622,7 @@
       </c>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>8</v>
       </c>
@@ -10701,7 +10700,7 @@
       </c>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>14</v>
       </c>
@@ -10779,7 +10778,7 @@
       </c>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>15</v>
       </c>
@@ -10857,7 +10856,7 @@
       </c>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>0</v>
       </c>
@@ -10935,7 +10934,7 @@
       </c>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>0</v>
       </c>
@@ -11013,7 +11012,7 @@
       </c>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -11091,7 +11090,7 @@
       </c>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>1</v>
       </c>
@@ -11169,7 +11168,7 @@
       </c>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>4</v>
       </c>
@@ -11247,7 +11246,7 @@
       </c>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>0</v>
       </c>
@@ -11325,7 +11324,7 @@
       </c>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>1</v>
       </c>
@@ -11403,7 +11402,7 @@
       </c>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>0</v>
       </c>
@@ -11481,7 +11480,7 @@
       </c>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>3</v>
       </c>
@@ -11793,7 +11792,7 @@
       </c>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>0</v>
       </c>
@@ -11871,7 +11870,7 @@
       </c>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>0</v>
       </c>
@@ -11949,7 +11948,7 @@
       </c>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>0</v>
       </c>
@@ -12027,7 +12026,7 @@
       </c>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -12105,7 +12104,7 @@
       </c>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -12183,7 +12182,7 @@
       </c>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>0</v>
       </c>
@@ -12261,7 +12260,7 @@
       </c>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>1</v>
       </c>
@@ -12339,7 +12338,7 @@
       </c>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -12417,7 +12416,7 @@
       </c>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>3</v>
       </c>
@@ -12495,7 +12494,7 @@
       </c>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>4</v>
       </c>
@@ -12573,7 +12572,7 @@
       </c>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -12651,7 +12650,7 @@
       </c>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>4</v>
       </c>
@@ -12729,7 +12728,7 @@
       </c>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>14</v>
       </c>
@@ -12807,7 +12806,7 @@
       </c>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" spans="1:26" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>0</v>
       </c>
@@ -12887,7 +12886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>0</v>
       </c>
@@ -12965,7 +12964,7 @@
       </c>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>1</v>
       </c>
@@ -13043,7 +13042,7 @@
       </c>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>2</v>
       </c>
@@ -13121,7 +13120,7 @@
       </c>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>4</v>
       </c>
@@ -13199,7 +13198,7 @@
       </c>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>5</v>
       </c>
@@ -13277,7 +13276,7 @@
       </c>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>0</v>
       </c>
@@ -13355,7 +13354,7 @@
       </c>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>1</v>
       </c>
@@ -13433,7 +13432,7 @@
       </c>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>3</v>
       </c>
@@ -13511,7 +13510,7 @@
       </c>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>6</v>
       </c>
@@ -13589,7 +13588,7 @@
       </c>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>6</v>
       </c>
@@ -13667,7 +13666,7 @@
       </c>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>0</v>
       </c>
@@ -13745,7 +13744,7 @@
       </c>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>2</v>
       </c>
@@ -13823,7 +13822,7 @@
       </c>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>1</v>
       </c>
@@ -13901,7 +13900,7 @@
       </c>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>1</v>
       </c>
@@ -13979,7 +13978,7 @@
       </c>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>0</v>
       </c>
@@ -14057,7 +14056,7 @@
       </c>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>1</v>
       </c>
@@ -14135,7 +14134,7 @@
       </c>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>2</v>
       </c>
@@ -14213,7 +14212,7 @@
       </c>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>3</v>
       </c>
@@ -14291,7 +14290,7 @@
       </c>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>6</v>
       </c>
@@ -14369,7 +14368,7 @@
       </c>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>7</v>
       </c>
@@ -14447,7 +14446,7 @@
       </c>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" spans="1:26" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>1</v>
       </c>
@@ -14527,7 +14526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>2</v>
       </c>
@@ -14605,7 +14604,7 @@
       </c>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>4</v>
       </c>
@@ -14683,7 +14682,7 @@
       </c>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -14761,7 +14760,7 @@
       </c>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>8</v>
       </c>
@@ -14839,7 +14838,7 @@
       </c>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>9</v>
       </c>
@@ -14917,7 +14916,7 @@
       </c>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>10</v>
       </c>
@@ -14995,7 +14994,7 @@
       </c>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>11</v>
       </c>
@@ -15073,7 +15072,7 @@
       </c>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>12</v>
       </c>
@@ -15151,7 +15150,7 @@
       </c>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>7</v>
       </c>
@@ -15240,13 +15239,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z185" xr:uid="{37EDC5A7-7122-4C2B-B2ED-3405E1D19072}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="JSC590R-SD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z185" xr:uid="{37EDC5A7-7122-4C2B-B2ED-3405E1D19072}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15908,8 +15901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44BED8-07FB-4C88-969A-C387BBAADFF4}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15950,6 +15943,10 @@
       <c r="D3" s="5">
         <v>1.6</v>
       </c>
+      <c r="E3">
+        <f>C3*0.04</f>
+        <v>48.76</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -16048,86 +16045,86 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>83</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="4">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>1.6</v>
       </c>
-      <c r="F11" s="8">
-        <v>240</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1410</v>
+      <c r="F11" s="4">
+        <v>235</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-11524</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5">
         <v>1.6</v>
       </c>
       <c r="F12" s="4">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="4">
-        <v>-11524</v>
+        <v>-1308</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5">
         <v>1.6</v>
       </c>
-      <c r="F13" s="8">
-        <v>175</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
+      <c r="F13" s="4">
+        <v>136</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1290</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -16142,44 +16139,44 @@
         <v>1.6</v>
       </c>
       <c r="F14" s="4">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4">
-        <v>-1308</v>
+        <v>-1150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5">
         <v>1.6</v>
       </c>
       <c r="F15" s="4">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="4">
-        <v>-1290</v>
+        <v>-735</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
@@ -16194,18 +16191,18 @@
         <v>1.6</v>
       </c>
       <c r="F16" s="4">
-        <v>130</v>
+        <v>123.8</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="4">
-        <v>-562</v>
+        <v>-704</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
@@ -16220,44 +16217,44 @@
         <v>1.6</v>
       </c>
       <c r="F17" s="4">
-        <v>123.8</v>
+        <v>130</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="4">
-        <v>-704</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="A18" s="4">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
         <v>1.6</v>
       </c>
-      <c r="F18" s="8">
-        <v>122</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1958</v>
+      <c r="F18" s="4">
+        <v>92</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-318</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -16272,44 +16269,44 @@
         <v>1.6</v>
       </c>
       <c r="F19" s="4">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F20" s="4">
         <v>100</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="4">
         <v>-307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>13</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="F20" s="8">
-        <v>93</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="8">
-        <v>-65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
@@ -16324,70 +16321,70 @@
         <v>1.6</v>
       </c>
       <c r="F21" s="4">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="4">
-        <v>-100</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E22" s="5">
         <v>1.6</v>
       </c>
       <c r="F22" s="4">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="4">
-        <v>-318</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E23" s="13">
         <v>1.6</v>
       </c>
       <c r="F23" s="12">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="12">
-        <v>-132</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -16402,137 +16399,137 @@
         <v>1.6</v>
       </c>
       <c r="F24" s="10">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="10">
-        <v>-1150</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="4">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F26" s="4">
+        <v>57</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>93</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="8">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E28" s="8">
         <v>1.6</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F28" s="8">
         <v>74</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="8">
         <v>-59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>75</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="F26" s="8">
-        <v>72</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="F27" s="4">
-        <v>70</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="F28" s="4">
-        <v>68</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-309</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8">
         <v>1.6</v>
       </c>
       <c r="F29" s="8">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>28</v>
@@ -16542,113 +16539,113 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="8">
+        <v>75</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>1.6</v>
       </c>
-      <c r="F30" s="4">
-        <v>60</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-159</v>
+      <c r="F30" s="8">
+        <v>72</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="8">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>1.6</v>
       </c>
-      <c r="F31" s="4">
-        <v>57</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-100</v>
+      <c r="F31" s="8">
+        <v>65</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>84</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="A32" s="8">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="8">
         <v>1.6</v>
       </c>
-      <c r="F32" s="4">
-        <v>57</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-735</v>
+      <c r="F32" s="8">
+        <v>240</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1410</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>40</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="A33" s="8">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="8">
         <v>1.6</v>
       </c>
-      <c r="F33" s="4">
-        <v>50</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="4">
-        <v>-152</v>
+      <c r="F33" s="8">
+        <v>122</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A10:H33" xr:uid="{FE44BED8-07FB-4C88-969A-C387BBAADFF4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H33">
-      <sortCondition descending="1" ref="F10:F33"/>
+      <sortCondition ref="H10:H33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16661,7 +16658,7 @@
   <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H85"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
